--- a/generated_poems/Scores_poems.xlsx
+++ b/generated_poems/Scores_poems.xlsx
@@ -480,16 +480,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>101.29</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>329.57</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>298.64</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>14.75</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -507,16 +507,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>99.56999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="E3" t="n">
-        <v>305.75</v>
+        <v>0.65</v>
       </c>
       <c r="F3" t="n">
-        <v>274.91</v>
+        <v>0.64</v>
       </c>
       <c r="G3" t="n">
-        <v>21</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4">
@@ -534,16 +534,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>85.73</v>
+        <v>0.58</v>
       </c>
       <c r="E4" t="n">
-        <v>279.95</v>
+        <v>0.28</v>
       </c>
       <c r="F4" t="n">
-        <v>251.09</v>
+        <v>0.29</v>
       </c>
       <c r="G4" t="n">
-        <v>20.33</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="5">
@@ -561,16 +561,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>89.08</v>
+        <v>0.67</v>
       </c>
       <c r="E5" t="n">
-        <v>293.44</v>
+        <v>0.47</v>
       </c>
       <c r="F5" t="n">
-        <v>261.56</v>
+        <v>0.44</v>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6">
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>99.56999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="E6" t="n">
-        <v>288.22</v>
+        <v>0.4</v>
       </c>
       <c r="F6" t="n">
-        <v>267.02</v>
+        <v>0.53</v>
       </c>
       <c r="G6" t="n">
-        <v>16.5</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -615,16 +615,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>85.02</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>300.74</v>
+        <v>0.58</v>
       </c>
       <c r="F7" t="n">
-        <v>271.41</v>
+        <v>0.59</v>
       </c>
       <c r="G7" t="n">
-        <v>21.75</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8">
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69.75</v>
+        <v>0.15</v>
       </c>
       <c r="E8" t="n">
-        <v>263.41</v>
+        <v>0.03</v>
       </c>
       <c r="F8" t="n">
-        <v>232.03</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>28.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>90.29000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E9" t="n">
-        <v>304.07</v>
+        <v>0.63</v>
       </c>
       <c r="F9" t="n">
-        <v>265.86</v>
+        <v>0.51</v>
       </c>
       <c r="G9" t="n">
-        <v>17.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>90.29000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E10" t="n">
-        <v>286.56</v>
+        <v>0.37</v>
       </c>
       <c r="F10" t="n">
-        <v>249.6</v>
+        <v>0.26</v>
       </c>
       <c r="G10" t="n">
-        <v>17.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>84</v>
+        <v>0.53</v>
       </c>
       <c r="E11" t="n">
-        <v>294.23</v>
+        <v>0.48</v>
       </c>
       <c r="F11" t="n">
-        <v>245.16</v>
+        <v>0.2</v>
       </c>
       <c r="G11" t="n">
-        <v>23</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="12">
@@ -750,16 +750,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>83.66</v>
+        <v>0.52</v>
       </c>
       <c r="E12" t="n">
-        <v>287.45</v>
+        <v>0.39</v>
       </c>
       <c r="F12" t="n">
-        <v>252.21</v>
+        <v>0.3</v>
       </c>
       <c r="G12" t="n">
-        <v>14.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>64.34</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>261.06</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>241.85</v>
+        <v>0.15</v>
       </c>
       <c r="G13" t="n">
-        <v>27.33</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="14">
@@ -806,16 +806,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>90.90000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="E14" t="n">
-        <v>323.01</v>
+        <v>0.9</v>
       </c>
       <c r="F14" t="n">
-        <v>287.23</v>
+        <v>0.83</v>
       </c>
       <c r="G14" t="n">
-        <v>20.5</v>
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
